--- a/m1/u1/ejercicios/20191028/Funciones lógicas/SI.ANIDADO QUINIELA.xlsx
+++ b/m1/u1/ejercicios/20191028/Funciones lógicas/SI.ANIDADO QUINIELA.xlsx
@@ -15,7 +15,7 @@
     <sheet name="QUINIELA" sheetId="1" r:id="rId1"/>
     <sheet name="Evaluacion" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -782,7 +782,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -853,7 +853,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="26" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="2" fillId="5" borderId="32" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -873,45 +872,49 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="5" borderId="26" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="5" borderId="28" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="5" borderId="26" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="2" fillId="5" borderId="28" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="2" fillId="5" borderId="30" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1558,22 +1561,22 @@
   <sheetData>
     <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="47" t="s">
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="50" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="3" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="44"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="48"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="51"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
@@ -1588,7 +1591,7 @@
       <c r="E4" s="4">
         <v>1</v>
       </c>
-      <c r="F4" s="54">
+      <c r="F4" s="42">
         <f>IF(C4&gt;E4,1,IF(C4=E4,"X",2))</f>
         <v>2</v>
       </c>
@@ -1606,7 +1609,7 @@
       <c r="E5" s="8">
         <v>0</v>
       </c>
-      <c r="F5" s="54">
+      <c r="F5" s="42">
         <f t="shared" ref="F5:F17" si="0">IF(C5&gt;E5,1,IF(C5=E5,"X",2))</f>
         <v>1</v>
       </c>
@@ -1624,7 +1627,7 @@
       <c r="E6" s="8">
         <v>1</v>
       </c>
-      <c r="F6" s="54">
+      <c r="F6" s="42">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -1642,7 +1645,7 @@
       <c r="E7" s="8">
         <v>1</v>
       </c>
-      <c r="F7" s="54">
+      <c r="F7" s="42">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1660,7 +1663,7 @@
       <c r="E8" s="8">
         <v>1</v>
       </c>
-      <c r="F8" s="54">
+      <c r="F8" s="42">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1678,7 +1681,7 @@
       <c r="E9" s="8">
         <v>2</v>
       </c>
-      <c r="F9" s="54" t="str">
+      <c r="F9" s="42" t="str">
         <f t="shared" si="0"/>
         <v>X</v>
       </c>
@@ -1696,7 +1699,7 @@
       <c r="E10" s="8">
         <v>2</v>
       </c>
-      <c r="F10" s="54">
+      <c r="F10" s="42">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1714,7 +1717,7 @@
       <c r="E11" s="8">
         <v>4</v>
       </c>
-      <c r="F11" s="54">
+      <c r="F11" s="42">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1732,7 +1735,7 @@
       <c r="E12" s="8">
         <v>4</v>
       </c>
-      <c r="F12" s="54">
+      <c r="F12" s="42">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -1750,7 +1753,7 @@
       <c r="E13" s="8">
         <v>1</v>
       </c>
-      <c r="F13" s="54" t="str">
+      <c r="F13" s="42" t="str">
         <f t="shared" si="0"/>
         <v>X</v>
       </c>
@@ -1768,7 +1771,7 @@
       <c r="E14" s="8">
         <v>0</v>
       </c>
-      <c r="F14" s="54">
+      <c r="F14" s="42">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1786,7 +1789,7 @@
       <c r="E15" s="8">
         <v>2</v>
       </c>
-      <c r="F15" s="54">
+      <c r="F15" s="42">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -1804,7 +1807,7 @@
       <c r="E16" s="8">
         <v>1</v>
       </c>
-      <c r="F16" s="54" t="str">
+      <c r="F16" s="42" t="str">
         <f t="shared" si="0"/>
         <v>X</v>
       </c>
@@ -1822,7 +1825,7 @@
       <c r="E17" s="12">
         <v>1</v>
       </c>
-      <c r="F17" s="54">
+      <c r="F17" s="42">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1843,10 +1846,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A3:G32"/>
+  <dimension ref="A3:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2367,18 +2370,18 @@
   <sheetData>
     <row r="3" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="50"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="51"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="54"/>
     </row>
     <row r="5" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="36" t="s">
         <v>30</v>
       </c>
       <c r="B6" s="15" t="s">
@@ -2393,7 +2396,7 @@
       <c r="E6" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="38" t="s">
+      <c r="F6" s="37" t="s">
         <v>35</v>
       </c>
     </row>
@@ -2410,11 +2413,11 @@
       <c r="D7" s="18">
         <v>5</v>
       </c>
-      <c r="E7" s="39">
+      <c r="E7" s="38">
         <f>SUM(B7:D7)/3</f>
         <v>3.6666666666666665</v>
       </c>
-      <c r="F7" s="40" t="str">
+      <c r="F7" s="39" t="str">
         <f>IF(E7&lt;5,"Insuficiente",IF(E7&lt;7,"Aprobado",IF(E7&lt;9.5,"Notable","Sobresaliente")))</f>
         <v>Insuficiente</v>
       </c>
@@ -2432,11 +2435,11 @@
       <c r="D8" s="18">
         <v>7.5</v>
       </c>
-      <c r="E8" s="39">
+      <c r="E8" s="38">
         <f t="shared" ref="E8:E21" si="0">SUM(B8:D8)/3</f>
         <v>8.4166666666666661</v>
       </c>
-      <c r="F8" s="40" t="str">
+      <c r="F8" s="39" t="str">
         <f t="shared" ref="F8:F21" si="1">IF(E8&lt;5,"Insuficiente",IF(E8&lt;7,"Aprobado",IF(E8&lt;9.5,"Notable","Sobresaliente")))</f>
         <v>Notable</v>
       </c>
@@ -2454,11 +2457,11 @@
       <c r="D9" s="18">
         <v>5</v>
       </c>
-      <c r="E9" s="39">
+      <c r="E9" s="38">
         <f t="shared" si="0"/>
         <v>5.166666666666667</v>
       </c>
-      <c r="F9" s="40" t="str">
+      <c r="F9" s="39" t="str">
         <f t="shared" si="1"/>
         <v>Aprobado</v>
       </c>
@@ -2476,11 +2479,11 @@
       <c r="D10" s="18">
         <v>7.25</v>
       </c>
-      <c r="E10" s="39">
+      <c r="E10" s="38">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="F10" s="40" t="str">
+      <c r="F10" s="39" t="str">
         <f t="shared" si="1"/>
         <v>Notable</v>
       </c>
@@ -2498,11 +2501,11 @@
       <c r="D11" s="18">
         <v>6</v>
       </c>
-      <c r="E11" s="39">
+      <c r="E11" s="38">
         <f t="shared" si="0"/>
         <v>3.6666666666666665</v>
       </c>
-      <c r="F11" s="40" t="str">
+      <c r="F11" s="39" t="str">
         <f t="shared" si="1"/>
         <v>Insuficiente</v>
       </c>
@@ -2520,11 +2523,11 @@
       <c r="D12" s="18">
         <v>2.5</v>
       </c>
-      <c r="E12" s="39">
+      <c r="E12" s="38">
         <f t="shared" si="0"/>
         <v>3.6666666666666665</v>
       </c>
-      <c r="F12" s="40" t="str">
+      <c r="F12" s="39" t="str">
         <f t="shared" si="1"/>
         <v>Insuficiente</v>
       </c>
@@ -2542,11 +2545,11 @@
       <c r="D13" s="18">
         <v>10</v>
       </c>
-      <c r="E13" s="39">
+      <c r="E13" s="38">
         <f t="shared" si="0"/>
         <v>9.6666666666666661</v>
       </c>
-      <c r="F13" s="40" t="str">
+      <c r="F13" s="39" t="str">
         <f t="shared" si="1"/>
         <v>Sobresaliente</v>
       </c>
@@ -2564,11 +2567,11 @@
       <c r="D14" s="18">
         <v>4.5</v>
       </c>
-      <c r="E14" s="39">
+      <c r="E14" s="38">
         <f t="shared" si="0"/>
         <v>3.8333333333333335</v>
       </c>
-      <c r="F14" s="40" t="str">
+      <c r="F14" s="39" t="str">
         <f t="shared" si="1"/>
         <v>Insuficiente</v>
       </c>
@@ -2586,11 +2589,11 @@
       <c r="D15" s="18">
         <v>5</v>
       </c>
-      <c r="E15" s="39">
+      <c r="E15" s="38">
         <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
-      <c r="F15" s="40" t="str">
+      <c r="F15" s="39" t="str">
         <f t="shared" si="1"/>
         <v>Insuficiente</v>
       </c>
@@ -2608,11 +2611,11 @@
       <c r="D16" s="18">
         <v>7</v>
       </c>
-      <c r="E16" s="39">
+      <c r="E16" s="38">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="F16" s="40" t="str">
+      <c r="F16" s="39" t="str">
         <f t="shared" si="1"/>
         <v>Aprobado</v>
       </c>
@@ -2630,11 +2633,11 @@
       <c r="D17" s="18">
         <v>4</v>
       </c>
-      <c r="E17" s="39">
+      <c r="E17" s="38">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="F17" s="40" t="str">
+      <c r="F17" s="39" t="str">
         <f t="shared" si="1"/>
         <v>Aprobado</v>
       </c>
@@ -2652,11 +2655,11 @@
       <c r="D18" s="18">
         <v>8.75</v>
       </c>
-      <c r="E18" s="39">
+      <c r="E18" s="38">
         <f t="shared" si="0"/>
         <v>9.0833333333333339</v>
       </c>
-      <c r="F18" s="40" t="str">
+      <c r="F18" s="39" t="str">
         <f t="shared" si="1"/>
         <v>Notable</v>
       </c>
@@ -2674,11 +2677,11 @@
       <c r="D19" s="18">
         <v>7</v>
       </c>
-      <c r="E19" s="39">
+      <c r="E19" s="38">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="F19" s="40" t="str">
+      <c r="F19" s="39" t="str">
         <f t="shared" si="1"/>
         <v>Aprobado</v>
       </c>
@@ -2696,11 +2699,11 @@
       <c r="D20" s="18">
         <v>2</v>
       </c>
-      <c r="E20" s="39">
+      <c r="E20" s="38">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="F20" s="40" t="str">
+      <c r="F20" s="39" t="str">
         <f t="shared" si="1"/>
         <v>Insuficiente</v>
       </c>
@@ -2718,11 +2721,11 @@
       <c r="D21" s="20">
         <v>5</v>
       </c>
-      <c r="E21" s="39">
+      <c r="E21" s="38">
         <f t="shared" si="0"/>
         <v>3.8333333333333335</v>
       </c>
-      <c r="F21" s="40" t="str">
+      <c r="F21" s="39" t="str">
         <f t="shared" si="1"/>
         <v>Insuficiente</v>
       </c>
@@ -2732,7 +2735,7 @@
       <c r="A23" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="B23" s="52">
+      <c r="B23" s="40">
         <f>MAX(E7:E21)</f>
         <v>9.6666666666666661</v>
       </c>
@@ -2741,7 +2744,7 @@
       <c r="A24" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="B24" s="53">
+      <c r="B24" s="41">
         <f>MIN(E7:E21)</f>
         <v>3</v>
       </c>
@@ -2753,7 +2756,7 @@
       <c r="A25" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="B25" s="53">
+      <c r="B25" s="41">
         <f>MODE(E7:E21)</f>
         <v>3.6666666666666665</v>
       </c>
@@ -2794,17 +2797,17 @@
         <v>58</v>
       </c>
       <c r="B29" s="31">
-        <f>COUNTIF(F7:F21,A29)</f>
+        <f>COUNTIF(F$7:F$21,A29)</f>
         <v>7</v>
       </c>
-      <c r="C29" s="32">
+      <c r="C29" s="55">
         <f>B29/$F$26</f>
         <v>0.46666666666666667</v>
       </c>
       <c r="F29" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="G29" s="33" t="s">
+      <c r="G29" s="32" t="s">
         <v>61</v>
       </c>
     </row>
@@ -2812,18 +2815,18 @@
       <c r="A30" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="B30" s="34">
-        <f t="shared" ref="B30:B32" si="2">COUNTIF(F8:F22,A30)</f>
+      <c r="B30" s="33">
+        <f t="shared" ref="B30:B32" si="2">COUNTIF(F$7:F$21,A30)</f>
         <v>4</v>
       </c>
-      <c r="C30" s="32">
-        <f t="shared" ref="C30:C32" si="3">B30/$F$26</f>
+      <c r="C30" s="56">
+        <f>B30/$F$26</f>
         <v>0.26666666666666666</v>
       </c>
       <c r="F30" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="G30" s="33" t="s">
+      <c r="G30" s="32" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2831,18 +2834,18 @@
       <c r="A31" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="B31" s="34">
+      <c r="B31" s="33">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="C31" s="32">
-        <f t="shared" si="3"/>
-        <v>0.13333333333333333</v>
+        <v>3</v>
+      </c>
+      <c r="C31" s="56">
+        <f>B31/$F$26</f>
+        <v>0.2</v>
       </c>
       <c r="F31" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="G31" s="35" t="s">
+      <c r="G31" s="34" t="s">
         <v>64</v>
       </c>
     </row>
@@ -2850,14 +2853,17 @@
       <c r="A32" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="B32" s="36">
+      <c r="B32" s="35">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="C32" s="32">
-        <f t="shared" si="3"/>
+      <c r="C32" s="57">
+        <f>B32/$F$26</f>
         <v>6.6666666666666666E-2</v>
       </c>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C33" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="1">
